--- a/data/IT-CF-80049220637/ocds.xlsx
+++ b/data/IT-CF-80049220637/ocds.xlsx
@@ -34307,7 +34307,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE</t>
+          <t>04-PROCEDURA NEGOZIATA SENZA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -44826,7 +44826,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>03-PROCEDURA NEGOZIATA PREVIA PUBBLICAZIONE</t>
+          <t>03-PROCEDURA NEGOZIATA PREVIA PUBBLICAZIONE DEL BANDO</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">

--- a/data/IT-CF-80049220637/ocds.xlsx
+++ b/data/IT-CF-80049220637/ocds.xlsx
@@ -34267,7 +34267,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -34334,7 +34334,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -34401,7 +34401,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -34468,7 +34468,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -34535,7 +34535,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -34602,7 +34602,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -34669,7 +34669,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -34736,7 +34736,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -34803,7 +34803,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -34870,7 +34870,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -34937,7 +34937,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -35004,7 +35004,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -35071,7 +35071,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -35138,7 +35138,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -35205,7 +35205,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -35272,7 +35272,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -35339,7 +35339,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -35406,7 +35406,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -35473,7 +35473,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -35540,7 +35540,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -35607,7 +35607,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -35674,7 +35674,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -35741,7 +35741,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -35808,7 +35808,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -35875,7 +35875,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -35942,7 +35942,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -36009,7 +36009,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -36076,7 +36076,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -36143,7 +36143,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -36210,7 +36210,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -36277,7 +36277,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -36344,7 +36344,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -36411,7 +36411,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -36478,7 +36478,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -36545,7 +36545,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -36612,7 +36612,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -36679,7 +36679,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -36746,7 +36746,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -36813,7 +36813,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -36880,7 +36880,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -36947,7 +36947,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -37014,7 +37014,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -37081,7 +37081,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -37148,7 +37148,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -37215,7 +37215,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -37282,7 +37282,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -37349,7 +37349,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -37416,7 +37416,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -37483,7 +37483,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -37550,7 +37550,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -37617,7 +37617,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -37684,7 +37684,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -37751,7 +37751,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -37818,7 +37818,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -37885,7 +37885,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -37952,7 +37952,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -38019,7 +38019,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -38086,7 +38086,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -38153,7 +38153,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -38220,7 +38220,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -38287,7 +38287,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -38354,7 +38354,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -38421,7 +38421,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -38488,7 +38488,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -38555,7 +38555,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -38622,7 +38622,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -38689,7 +38689,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -38756,7 +38756,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -38823,7 +38823,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -38890,7 +38890,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -38957,7 +38957,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -39024,7 +39024,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -39091,7 +39091,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -39158,7 +39158,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -39225,7 +39225,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -39292,7 +39292,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -39359,7 +39359,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -39426,7 +39426,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -39493,7 +39493,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -39560,7 +39560,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -39627,7 +39627,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -39694,7 +39694,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -39761,7 +39761,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -39828,7 +39828,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -39895,7 +39895,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -39962,7 +39962,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -40029,7 +40029,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -40096,7 +40096,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -40163,7 +40163,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -40230,7 +40230,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -40297,7 +40297,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -40364,7 +40364,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -40431,7 +40431,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -40498,7 +40498,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -40565,7 +40565,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -40632,7 +40632,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -40699,7 +40699,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -40766,7 +40766,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -40833,7 +40833,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -40900,7 +40900,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -40967,7 +40967,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -41034,7 +41034,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -41101,7 +41101,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -41168,7 +41168,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -41235,7 +41235,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -41302,7 +41302,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -41369,7 +41369,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -41436,7 +41436,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -41503,7 +41503,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -41570,7 +41570,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -41637,7 +41637,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -41704,7 +41704,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -41771,7 +41771,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -41838,7 +41838,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -41905,7 +41905,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -41972,7 +41972,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -42039,7 +42039,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -42106,7 +42106,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -42173,7 +42173,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -42240,7 +42240,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -42307,7 +42307,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -42374,7 +42374,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -42441,7 +42441,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -42508,7 +42508,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -42575,7 +42575,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -42642,7 +42642,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -42709,7 +42709,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -42776,7 +42776,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -42843,7 +42843,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -42910,7 +42910,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -42977,7 +42977,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -43044,7 +43044,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -43111,7 +43111,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -43178,7 +43178,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -43245,7 +43245,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -43312,7 +43312,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -43379,7 +43379,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -43446,7 +43446,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -43513,7 +43513,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -43580,7 +43580,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -43647,7 +43647,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -43714,7 +43714,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -43781,7 +43781,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -43848,7 +43848,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -43915,7 +43915,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -43982,7 +43982,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -44049,7 +44049,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -44116,7 +44116,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -44183,7 +44183,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -44250,7 +44250,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -44317,7 +44317,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -44384,7 +44384,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -44451,7 +44451,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -44518,7 +44518,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -44585,7 +44585,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -44652,7 +44652,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -44719,7 +44719,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -44786,7 +44786,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -44853,7 +44853,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -44920,7 +44920,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -44987,7 +44987,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -45054,7 +45054,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -45121,7 +45121,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -45188,7 +45188,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -45255,7 +45255,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -45322,7 +45322,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -45389,7 +45389,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -45456,7 +45456,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -45523,7 +45523,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -45590,7 +45590,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -45657,7 +45657,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -45724,7 +45724,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -45791,7 +45791,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -45858,7 +45858,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -45925,7 +45925,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -45992,7 +45992,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -46059,7 +46059,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -46126,7 +46126,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -46193,7 +46193,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -46260,7 +46260,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -46327,7 +46327,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -46394,7 +46394,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -46461,7 +46461,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -46528,7 +46528,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -46595,7 +46595,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -46662,7 +46662,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -46729,7 +46729,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -46796,7 +46796,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -46863,7 +46863,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -46930,7 +46930,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -46997,7 +46997,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2020-02-15T00:00:00Z</t>
+          <t>2020-10-07T00:00:00Z</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
